--- a/ARMLibrary/Assets/Демо Версия Вывода в Exel.xlsx
+++ b/ARMLibrary/Assets/Демо Версия Вывода в Exel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\Шарага\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\311-10(student)\source\repos\ARMLibrary\ARMLibrary\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EF9174F-5E8B-4583-8FDA-BC95E2FAAE43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102E90F-E02F-4601-90FA-8F60B5BEBA7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{654F086C-9153-4AAA-BCA9-4EF3DEF3683D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{654F086C-9153-4AAA-BCA9-4EF3DEF3683D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name=" ФОРМУЛЯРА КНИГИ" sheetId="1" r:id="rId1"/>
+    <sheet name=" ФОРМУЛЯРА ЧИТАТЕЛЯ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,45 +26,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Формуляр Книги</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Фамилия</t>
   </si>
   <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>пол</t>
-  </si>
-  <si>
-    <t>№1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> №2</t>
-  </si>
-  <si>
-    <t>№3</t>
-  </si>
-  <si>
-    <t>№4</t>
-  </si>
-  <si>
-    <t>№5</t>
-  </si>
-  <si>
-    <t>№6</t>
-  </si>
-  <si>
-    <t>Возраст</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Скрок Возврата</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Автор и название книги</t>
+  </si>
+  <si>
+    <t>Подпись читателя в получении книги</t>
+  </si>
+  <si>
+    <t>Отдел фонда</t>
+  </si>
+  <si>
+    <t>Подпись Библиотекаря о возврате книги</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Заметки библиотекаря</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ФОРМУЛЯРА ЧИТАТЕЛЯ</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>Имя, Отчество</t>
+  </si>
+  <si>
+    <t>Год Рождения</t>
+  </si>
+  <si>
+    <t>Профессия</t>
+  </si>
+  <si>
+    <t>Местро Работы</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>Учеб.Заведение(если есть)</t>
+  </si>
+  <si>
+    <t>Дом.Адрес, Телефон</t>
+  </si>
+  <si>
+    <t>Паспорт:</t>
+  </si>
+  <si>
+    <t>Серия</t>
+  </si>
+  <si>
+    <t>Кем и когда Выдан</t>
+  </si>
+  <si>
+    <t>Состоит читателем библиотеки с</t>
+  </si>
+  <si>
+    <t>Правила обязуюсь выполнить</t>
+  </si>
+  <si>
+    <t>Подпись</t>
   </si>
 </sst>
 </file>
@@ -88,8 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -104,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -112,24 +149,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,109 +704,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA229AB8-BC71-4A5B-9804-3F1B13EFA210}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    </row>
+    <row r="3" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB8BD8-8269-4A31-B3AF-BCA0BF0DB674}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>